--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdcd1lg2-Pdcd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdcd1lg2-Pdcd1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1554466666666666</v>
+        <v>0.3802213333333334</v>
       </c>
       <c r="H2">
-        <v>0.46634</v>
+        <v>1.140664</v>
       </c>
       <c r="I2">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="J2">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08558399999999999</v>
+        <v>0.05256533333333333</v>
       </c>
       <c r="N2">
-        <v>0.256752</v>
+        <v>0.157696</v>
       </c>
       <c r="O2">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952154</v>
       </c>
       <c r="P2">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952153</v>
       </c>
       <c r="Q2">
-        <v>0.01330374752</v>
+        <v>0.01998646112711111</v>
       </c>
       <c r="R2">
-        <v>0.11973372768</v>
+        <v>0.179878150144</v>
       </c>
       <c r="S2">
-        <v>0.00332849788590586</v>
+        <v>0.03976305174851474</v>
       </c>
       <c r="T2">
-        <v>0.00332849788590586</v>
+        <v>0.03976305174851474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1554466666666666</v>
+        <v>0.3802213333333334</v>
       </c>
       <c r="H3">
-        <v>0.46634</v>
+        <v>1.140664</v>
       </c>
       <c r="I3">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="J3">
-        <v>0.01411428973016386</v>
+        <v>0.05154022338265814</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2773296666666666</v>
+        <v>0.015569</v>
       </c>
       <c r="N3">
-        <v>0.831989</v>
+        <v>0.046707</v>
       </c>
       <c r="O3">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="P3">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="Q3">
-        <v>0.0431099722511111</v>
+        <v>0.005919665938666667</v>
       </c>
       <c r="R3">
-        <v>0.38798975026</v>
+        <v>0.05327699344800001</v>
       </c>
       <c r="S3">
-        <v>0.010785791844258</v>
+        <v>0.0117771716341434</v>
       </c>
       <c r="T3">
-        <v>0.010785791844258</v>
+        <v>0.0117771716341434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.33883833333333</v>
+        <v>6.845175999999999</v>
       </c>
       <c r="H4">
-        <v>31.016515</v>
+        <v>20.535528</v>
       </c>
       <c r="I4">
-        <v>0.9387487222412261</v>
+        <v>0.9278856003177367</v>
       </c>
       <c r="J4">
-        <v>0.938748722241226</v>
+        <v>0.9278856003177366</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08558399999999999</v>
+        <v>0.05256533333333333</v>
       </c>
       <c r="N4">
-        <v>0.256752</v>
+        <v>0.157696</v>
       </c>
       <c r="O4">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952154</v>
       </c>
       <c r="P4">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952153</v>
       </c>
       <c r="Q4">
-        <v>0.88483913992</v>
+        <v>0.3598189581653333</v>
       </c>
       <c r="R4">
-        <v>7.963552259279999</v>
+        <v>3.238370623488</v>
       </c>
       <c r="S4">
-        <v>0.2213801188095968</v>
+        <v>0.7158595892805185</v>
       </c>
       <c r="T4">
-        <v>0.2213801188095968</v>
+        <v>0.7158595892805183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.33883833333333</v>
+        <v>6.845175999999999</v>
       </c>
       <c r="H5">
-        <v>31.016515</v>
+        <v>20.535528</v>
       </c>
       <c r="I5">
-        <v>0.9387487222412261</v>
+        <v>0.9278856003177367</v>
       </c>
       <c r="J5">
-        <v>0.938748722241226</v>
+        <v>0.9278856003177366</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2773296666666666</v>
+        <v>0.015569</v>
       </c>
       <c r="N5">
-        <v>0.831989</v>
+        <v>0.046707</v>
       </c>
       <c r="O5">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="P5">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="Q5">
-        <v>2.867266588703889</v>
+        <v>0.106572545144</v>
       </c>
       <c r="R5">
-        <v>25.805399298335</v>
+        <v>0.9591529062959999</v>
       </c>
       <c r="S5">
-        <v>0.7173686034316292</v>
+        <v>0.2120260110372183</v>
       </c>
       <c r="T5">
-        <v>0.7173686034316292</v>
+        <v>0.2120260110372182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5191396666666667</v>
+        <v>0.1517793333333333</v>
       </c>
       <c r="H6">
-        <v>1.557419</v>
+        <v>0.455338</v>
       </c>
       <c r="I6">
-        <v>0.04713698802861018</v>
+        <v>0.02057417629960514</v>
       </c>
       <c r="J6">
-        <v>0.04713698802861017</v>
+        <v>0.02057417629960513</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08558399999999999</v>
+        <v>0.05256533333333333</v>
       </c>
       <c r="N6">
-        <v>0.256752</v>
+        <v>0.157696</v>
       </c>
       <c r="O6">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952154</v>
       </c>
       <c r="P6">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952153</v>
       </c>
       <c r="Q6">
-        <v>0.04443004923199999</v>
+        <v>0.007978331249777778</v>
       </c>
       <c r="R6">
-        <v>0.399870443088</v>
+        <v>0.071804981248</v>
       </c>
       <c r="S6">
-        <v>0.01111606520772316</v>
+        <v>0.01587288496618216</v>
       </c>
       <c r="T6">
-        <v>0.01111606520772316</v>
+        <v>0.01587288496618216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5191396666666667</v>
+        <v>0.1517793333333333</v>
       </c>
       <c r="H7">
-        <v>1.557419</v>
+        <v>0.455338</v>
       </c>
       <c r="I7">
-        <v>0.04713698802861018</v>
+        <v>0.02057417629960514</v>
       </c>
       <c r="J7">
-        <v>0.04713698802861017</v>
+        <v>0.02057417629960513</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2773296666666666</v>
+        <v>0.015569</v>
       </c>
       <c r="N7">
-        <v>0.831989</v>
+        <v>0.046707</v>
       </c>
       <c r="O7">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="P7">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="Q7">
-        <v>0.1439728307101111</v>
+        <v>0.002363052440666667</v>
       </c>
       <c r="R7">
-        <v>1.295755476391</v>
+        <v>0.021267471966</v>
       </c>
       <c r="S7">
-        <v>0.03602092282088702</v>
+        <v>0.004701291333422979</v>
       </c>
       <c r="T7">
-        <v>0.03602092282088701</v>
+        <v>0.004701291333422977</v>
       </c>
     </row>
   </sheetData>
